--- a/data/industry/CFM/eMMC.xlsx
+++ b/data/industry/CFM/eMMC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\CFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DEB95C-07F9-49D1-8570-CF01B48ADDC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93847322-AEE4-4BA6-A414-96058A35622E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eMMC 8GB 5.1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="9">
   <si>
     <t>Base Date</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -63,15 +63,19 @@
     <t>UTC+8</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>UTC+8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -128,38 +132,38 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표" xfId="1" builtinId="3"/>
@@ -441,21 +445,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="11.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="12.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="10"/>
+    <col min="7" max="7" width="11.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -471,612 +475,635 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45860</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>45860</v>
       </c>
-      <c r="C2" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="C2" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10">
         <v>2.4</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="10">
         <v>3.4</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="10">
         <v>2.8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45867</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>45867</v>
       </c>
-      <c r="C3" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="C3" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10">
         <v>2.4</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="10">
         <v>3.4</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="10">
         <v>2.8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45874</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>45874</v>
       </c>
-      <c r="C4" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="C4" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10">
         <v>2.4</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="10">
         <v>3.4</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="10">
         <v>2.8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45881</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>45881</v>
       </c>
-      <c r="C5" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="C5" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10">
         <v>2.8</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="10">
         <v>3.8</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="10">
         <v>3.2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45888</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>45888</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="C6" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="10">
         <v>2.8</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="10">
         <v>3.8</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="10">
         <v>3.2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45895</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>45895</v>
       </c>
-      <c r="C7" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="C7" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="10">
         <v>2.8</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="10">
         <v>3.8</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="10">
         <v>3.2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>45902</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>45902</v>
       </c>
-      <c r="C8" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="C8" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10">
         <v>2.8</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="10">
         <v>3.8</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="10">
         <v>3.2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>45909</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>45909</v>
       </c>
-      <c r="C9" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="C9" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="10">
         <v>2.8</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="10">
         <v>3.8</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="10">
         <v>3.2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>45916</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>45916</v>
       </c>
-      <c r="C10" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="C10" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="10">
         <v>2.8</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="10">
         <v>3.8</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="10">
         <v>3.2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45923</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>45923</v>
       </c>
-      <c r="C11" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="C11" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10">
         <v>3.1</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="10">
         <v>3.5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>45930</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>45930</v>
       </c>
-      <c r="C12" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="C12" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10">
         <v>3.1</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="10">
         <v>3.5</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>45944</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>45944</v>
       </c>
-      <c r="C13" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="C13" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="10">
         <v>3.4</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="10">
         <v>3.8</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>45951</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>45951</v>
       </c>
-      <c r="C14" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="C14" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="10">
         <v>3.4</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="10">
         <v>3.8</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>45958</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>45958</v>
       </c>
-      <c r="C15" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="C15" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="10">
         <v>5</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="10">
         <v>4.5</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>45965</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>45965</v>
       </c>
-      <c r="C16" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="C16" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="10">
         <v>5.8</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="10">
         <v>5.3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>45972</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>45972</v>
       </c>
-      <c r="C17" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="C17" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="10">
         <v>5.3</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="10">
         <v>6.2</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="10">
         <v>5.7</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>45979</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>45979</v>
       </c>
-      <c r="C18" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="C18" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="10">
         <v>6.4</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="10">
         <v>7.3</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="10">
         <v>6.8</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>45986</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>45986</v>
       </c>
-      <c r="C19" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="C19" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="10">
         <v>6.4</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="10">
         <v>7.3</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="10">
         <v>6.8</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>45993</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>45993</v>
       </c>
-      <c r="C20" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="C20" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="10">
         <v>7.6</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="10">
         <v>8.5</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>46000</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>46000</v>
       </c>
-      <c r="C21" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="C21" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="10">
         <v>7.6</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="10">
         <v>8.5</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>46007</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>46007</v>
       </c>
-      <c r="C22" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="C22" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="10">
         <v>7.6</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="10">
         <v>8.5</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>46014</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>46014</v>
       </c>
-      <c r="C23" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="C23" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="10">
         <v>8.6</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="10">
         <v>9.5</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>46021</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>46021</v>
       </c>
-      <c r="C24" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="C24" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="10">
         <v>8.6</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="10">
         <v>9.5</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>46028</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>46028</v>
       </c>
-      <c r="C25" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="C25" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="10">
         <v>9.6</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="10">
         <v>10.5</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="A26" s="8">
         <v>46035</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="8">
         <v>46035</v>
       </c>
-      <c r="C26" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="C26" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="10">
         <v>9.6</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="10">
         <v>10.5</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="A27" s="8">
         <v>46042</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <v>46042</v>
       </c>
-      <c r="C27" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="C27" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="10">
         <v>11.6</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="10">
         <v>12.5</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="10">
         <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="5">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="10">
+        <v>14.6</v>
+      </c>
+      <c r="F28" s="10">
+        <v>15.5</v>
+      </c>
+      <c r="G28" s="10">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1087,7 +1114,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3458BA-C690-425E-897C-D26F43A0AC55}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
@@ -1095,13 +1122,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="11.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="12.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="10"/>
+    <col min="7" max="7" width="11.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1117,612 +1144,635 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45860</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>45860</v>
       </c>
-      <c r="C2" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="C2" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10">
         <v>3.6</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="10">
         <v>3.8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45867</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>45867</v>
       </c>
-      <c r="C3" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="C3" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10">
         <v>3.6</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="10">
         <v>3.8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45874</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>45874</v>
       </c>
-      <c r="C4" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="C4" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10">
         <v>3.6</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="10">
         <v>3.8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45881</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>45881</v>
       </c>
-      <c r="C5" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="C5" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10">
         <v>3.6</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="10">
         <v>3.8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45888</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>45888</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="C6" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="10">
         <v>3.6</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="10">
         <v>3.8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45895</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>45895</v>
       </c>
-      <c r="C7" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="C7" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="10">
         <v>3.6</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="10">
         <v>3.8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>45902</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>45902</v>
       </c>
-      <c r="C8" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="C8" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10">
         <v>3.6</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="10">
         <v>3.8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>45909</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>45909</v>
       </c>
-      <c r="C9" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="C9" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="10">
         <v>3.6</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="10">
         <v>3.8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>45916</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>45916</v>
       </c>
-      <c r="C10" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="C10" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="10">
         <v>3.6</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="10">
         <v>3.8</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45923</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>45923</v>
       </c>
-      <c r="C11" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="C11" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10">
         <v>3.9</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="10">
         <v>4.7</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="10">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>45930</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>45930</v>
       </c>
-      <c r="C12" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="C12" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10">
         <v>3.9</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="10">
         <v>4.7</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="10">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>45944</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>45944</v>
       </c>
-      <c r="C13" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="C13" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="10">
         <v>4.3</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="10">
         <v>4.5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>45951</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>45951</v>
       </c>
-      <c r="C14" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="C14" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="10">
         <v>4.3</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="10">
         <v>4.5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>45958</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>45958</v>
       </c>
-      <c r="C15" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="C15" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="10">
         <v>5.3</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="10">
         <v>6.8</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="10">
         <v>5.5</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>45965</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>45965</v>
       </c>
-      <c r="C16" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="C16" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10">
         <v>6</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="10">
         <v>7.5</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="10">
         <v>6.2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>45972</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>45972</v>
       </c>
-      <c r="C17" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="C17" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="10">
         <v>6.4</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="10">
         <v>7.9</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="10">
         <v>6.6</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>45979</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>45979</v>
       </c>
-      <c r="C18" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="C18" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="10">
         <v>7.6</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="10">
         <v>9.1</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="10">
         <v>7.8</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>45986</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>45986</v>
       </c>
-      <c r="C19" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="C19" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="10">
         <v>7.6</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="10">
         <v>9.1</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="10">
         <v>7.8</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>45993</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>45993</v>
       </c>
-      <c r="C20" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="C20" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="10">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="10">
         <v>10.3</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>46000</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>46000</v>
       </c>
-      <c r="C21" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="C21" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="10">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="10">
         <v>10.3</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>46007</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>46007</v>
       </c>
-      <c r="C22" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="C22" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="10">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="10">
         <v>10.3</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>46014</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>46014</v>
       </c>
-      <c r="C23" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="C23" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="10">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="10">
         <v>11.3</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>46021</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>46021</v>
       </c>
-      <c r="C24" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="C24" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="10">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="10">
         <v>11.3</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>46028</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>46028</v>
       </c>
-      <c r="C25" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="C25" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="10">
         <v>10.8</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="10">
         <v>12.3</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="A26" s="8">
         <v>46035</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="8">
         <v>46035</v>
       </c>
-      <c r="C26" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="C26" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="10">
         <v>10.8</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="10">
         <v>12.3</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="A27" s="8">
         <v>46042</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <v>46042</v>
       </c>
-      <c r="C27" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="C27" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="10">
         <v>12.8</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="10">
         <v>14.3</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="10">
         <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="5">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="10">
+        <v>15.8</v>
+      </c>
+      <c r="F28" s="10">
+        <v>17.3</v>
+      </c>
+      <c r="G28" s="10">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1733,21 +1783,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4C3C62-4D14-4156-9017-943BF365E5C9}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="11.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="12.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="10"/>
+    <col min="7" max="7" width="11.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1763,612 +1813,635 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45860</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>45860</v>
       </c>
-      <c r="C2" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="C2" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10">
         <v>3.6</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45867</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>45867</v>
       </c>
-      <c r="C3" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="C3" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10">
         <v>3.6</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45874</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>45874</v>
       </c>
-      <c r="C4" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="C4" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10">
         <v>3.6</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45881</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>45881</v>
       </c>
-      <c r="C5" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="C5" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10">
         <v>3.6</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45888</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>45888</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="C6" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="10">
         <v>3.6</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45895</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>45895</v>
       </c>
-      <c r="C7" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="C7" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="10">
         <v>3.6</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>45902</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>45902</v>
       </c>
-      <c r="C8" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="C8" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10">
         <v>3.6</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>45909</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>45909</v>
       </c>
-      <c r="C9" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="C9" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="10">
         <v>3.6</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>45916</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>45916</v>
       </c>
-      <c r="C10" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="C10" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="10">
         <v>3.6</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45923</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>45923</v>
       </c>
-      <c r="C11" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="C11" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10">
         <v>4</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="10">
         <v>4.8</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="10">
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>45930</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>45930</v>
       </c>
-      <c r="C12" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="C12" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10">
         <v>4</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="10">
         <v>4.8</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="10">
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>45944</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>45944</v>
       </c>
-      <c r="C13" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="C13" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="10">
         <v>4.2</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="10">
         <v>5</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="10">
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>45951</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>45951</v>
       </c>
-      <c r="C14" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="C14" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="10">
         <v>4.2</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="10">
         <v>5</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="10">
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>45958</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>45958</v>
       </c>
-      <c r="C15" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="C15" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="10">
         <v>6.8</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="10">
         <v>5.5</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>45965</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>45965</v>
       </c>
-      <c r="C16" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="C16" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10">
         <v>6.1</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="10">
         <v>7.8</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="10">
         <v>6.5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>45972</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>45972</v>
       </c>
-      <c r="C17" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="C17" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="10">
         <v>6.6</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="10">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>45979</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>45979</v>
       </c>
-      <c r="C18" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="C18" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="10">
         <v>7.6</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="10">
         <v>9.3000000000000007</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>45986</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>45986</v>
       </c>
-      <c r="C19" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="C19" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="10">
         <v>7.6</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="10">
         <v>9.3000000000000007</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>45993</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>45993</v>
       </c>
-      <c r="C20" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="C20" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="10">
         <v>9.6</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="10">
         <v>11.3</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>46000</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>46000</v>
       </c>
-      <c r="C21" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="C21" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="10">
         <v>9.6</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="10">
         <v>11.3</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>46007</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>46007</v>
       </c>
-      <c r="C22" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="C22" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="10">
         <v>9.6</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="10">
         <v>11.3</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>46014</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>46014</v>
       </c>
-      <c r="C23" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="C23" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="10">
         <v>11.1</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="10">
         <v>12.8</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="10">
         <v>11.5</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>46021</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>46021</v>
       </c>
-      <c r="C24" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="C24" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="10">
         <v>11.1</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="10">
         <v>12.8</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="10">
         <v>11.5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>46028</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>46028</v>
       </c>
-      <c r="C25" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="C25" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="10">
         <v>12.1</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="10">
         <v>13.8</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="10">
         <v>12.5</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="A26" s="8">
         <v>46035</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="8">
         <v>46035</v>
       </c>
-      <c r="C26" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="C26" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="10">
         <v>12.1</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="10">
         <v>13.8</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="10">
         <v>12.5</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="A27" s="8">
         <v>46042</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <v>46042</v>
       </c>
-      <c r="C27" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="C27" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="10">
         <v>14.1</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="10">
         <v>15.8</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="10">
         <v>14.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="5">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="10">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F28" s="10">
+        <v>18.3</v>
+      </c>
+      <c r="G28" s="10">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2379,21 +2452,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB386A95-5195-4084-9FB9-971921256B62}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="11.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="12.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="10"/>
+    <col min="7" max="7" width="11.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2409,612 +2482,635 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45860</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>45860</v>
       </c>
-      <c r="C2" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="C2" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10">
         <v>3.5</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45867</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>45867</v>
       </c>
-      <c r="C3" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="C3" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10">
         <v>3.5</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45874</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>45874</v>
       </c>
-      <c r="C4" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="C4" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10">
         <v>3.5</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45881</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>45881</v>
       </c>
-      <c r="C5" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="C5" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10">
         <v>3.5</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45888</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>45888</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="C6" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="10">
         <v>3.5</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45895</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>45895</v>
       </c>
-      <c r="C7" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="C7" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="10">
         <v>3.5</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>45902</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>45902</v>
       </c>
-      <c r="C8" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="C8" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10">
         <v>3.5</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>45909</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>45909</v>
       </c>
-      <c r="C9" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="C9" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="10">
         <v>3.5</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>45916</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>45916</v>
       </c>
-      <c r="C10" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="C10" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="10">
         <v>3.5</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45923</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>45923</v>
       </c>
-      <c r="C11" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="C11" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="10">
         <v>5.7</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="10">
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>45930</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>45930</v>
       </c>
-      <c r="C12" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="C12" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="10">
         <v>5.7</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="10">
         <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>45944</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>45944</v>
       </c>
-      <c r="C13" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="C13" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="10">
         <v>4.5</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="10">
         <v>6.1</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>45951</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>45951</v>
       </c>
-      <c r="C14" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="C14" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="10">
         <v>4.5</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="10">
         <v>6.1</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>45958</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>45958</v>
       </c>
-      <c r="C15" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="C15" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="10">
         <v>5.5</v>
       </c>
-      <c r="F15" s="9">
-        <v>7</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="F15" s="10">
+        <v>7</v>
+      </c>
+      <c r="G15" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>45965</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>45965</v>
       </c>
-      <c r="C16" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="9">
-        <v>7</v>
-      </c>
-      <c r="F16" s="9">
+      <c r="C16" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10">
+        <v>7</v>
+      </c>
+      <c r="F16" s="10">
         <v>8.5</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="10">
         <v>7.5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>45972</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>45972</v>
       </c>
-      <c r="C17" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="C17" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="10">
         <v>7.5</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="10">
         <v>9</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>45979</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>45979</v>
       </c>
-      <c r="C18" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="C18" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="10">
         <v>9</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="10">
         <v>10.5</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="10">
         <v>9.5</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>45986</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>45986</v>
       </c>
-      <c r="C19" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="C19" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="10">
         <v>9</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="10">
         <v>10.5</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="10">
         <v>9.5</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>45993</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>45993</v>
       </c>
-      <c r="C20" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="C20" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="10">
         <v>10.5</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="10">
         <v>12</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>46000</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>46000</v>
       </c>
-      <c r="C21" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="C21" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="10">
         <v>10.5</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="10">
         <v>12</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>46007</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>46007</v>
       </c>
-      <c r="C22" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="C22" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="10">
         <v>10.5</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="10">
         <v>12</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>46014</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>46014</v>
       </c>
-      <c r="C23" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="C23" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="10">
         <v>12.5</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="10">
         <v>14</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="10">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>46021</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>46021</v>
       </c>
-      <c r="C24" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="C24" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="10">
         <v>12.5</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="10">
         <v>14</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="10">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>46028</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>46028</v>
       </c>
-      <c r="C25" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="C25" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="10">
         <v>12.5</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="10">
         <v>14</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="10">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="A26" s="8">
         <v>46035</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="8">
         <v>46035</v>
       </c>
-      <c r="C26" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="C26" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="10">
         <v>12.5</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="10">
         <v>14</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="10">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="A27" s="8">
         <v>46042</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <v>46042</v>
       </c>
-      <c r="C27" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="C27" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="10">
         <v>14.5</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="10">
         <v>16</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="10">
         <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="5">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="10">
+        <v>18.5</v>
+      </c>
+      <c r="F28" s="10">
+        <v>20</v>
+      </c>
+      <c r="G28" s="10">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3025,21 +3121,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29CFE0E-1939-4F13-BC18-8B4E3159446B}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="11.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="12.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="10"/>
+    <col min="7" max="7" width="11.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -3055,612 +3151,635 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45860</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>45860</v>
       </c>
-      <c r="C2" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="C2" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10">
         <v>6.6</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="10">
         <v>7.7</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="10">
         <v>7.2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45867</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>45867</v>
       </c>
-      <c r="C3" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="C3" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10">
         <v>6.6</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="10">
         <v>7.7</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="10">
         <v>7.2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45874</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>45874</v>
       </c>
-      <c r="C4" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="C4" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10">
         <v>6.6</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="10">
         <v>7.7</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="10">
         <v>7.2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45881</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>45881</v>
       </c>
-      <c r="C5" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="C5" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10">
         <v>6.6</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="10">
         <v>7.7</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="10">
         <v>7.2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45888</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>45888</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="C6" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="10">
         <v>6.6</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="10">
         <v>7.7</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="10">
         <v>7.2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45895</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>45895</v>
       </c>
-      <c r="C7" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="C7" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="10">
         <v>6.6</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="10">
         <v>7.7</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="10">
         <v>7.2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>45902</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>45902</v>
       </c>
-      <c r="C8" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="C8" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10">
         <v>6.6</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="10">
         <v>7.7</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="10">
         <v>7.2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>45909</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>45909</v>
       </c>
-      <c r="C9" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="C9" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="10">
         <v>6.6</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="10">
         <v>7.7</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="10">
         <v>7.2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>45916</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>45916</v>
       </c>
-      <c r="C10" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="C10" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="10">
         <v>6.6</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="10">
         <v>7.7</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="10">
         <v>7.2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45923</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>45923</v>
       </c>
-      <c r="C11" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="C11" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10">
         <v>7.4</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="10">
         <v>8.5</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>45930</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>45930</v>
       </c>
-      <c r="C12" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="C12" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10">
         <v>7.4</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="10">
         <v>8.5</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>45944</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>45944</v>
       </c>
-      <c r="C13" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="C13" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="10">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="10">
         <v>9.3000000000000007</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="10">
         <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>45951</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>45951</v>
       </c>
-      <c r="C14" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="C14" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="10">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="10">
         <v>9.3000000000000007</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="10">
         <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>45958</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>45958</v>
       </c>
-      <c r="C15" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="C15" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="10">
         <v>9.9</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="10">
         <v>13</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="10">
         <v>10.5</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>45965</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>45965</v>
       </c>
-      <c r="C16" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="C16" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10">
         <v>12.4</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="10">
         <v>15.5</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="10">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>45972</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>45972</v>
       </c>
-      <c r="C17" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="C17" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="10">
         <v>13.4</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="10">
         <v>16.5</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>45979</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>45979</v>
       </c>
-      <c r="C18" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="C18" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="10">
         <v>15.4</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="10">
         <v>18.5</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>45986</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>45986</v>
       </c>
-      <c r="C19" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="C19" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="10">
         <v>15.4</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="10">
         <v>18.5</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>45993</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>45993</v>
       </c>
-      <c r="C20" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="C20" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="10">
         <v>19.399999999999999</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="10">
         <v>22.5</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>46000</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>46000</v>
       </c>
-      <c r="C21" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="C21" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="10">
         <v>19.399999999999999</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="10">
         <v>22.5</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>46007</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>46007</v>
       </c>
-      <c r="C22" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="C22" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="10">
         <v>19.399999999999999</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="10">
         <v>22.5</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>46014</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>46014</v>
       </c>
-      <c r="C23" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="C23" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="10">
         <v>22.4</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="10">
         <v>25.5</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="10">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>46021</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>46021</v>
       </c>
-      <c r="C24" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="C24" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="10">
         <v>22.4</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="10">
         <v>25.5</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="10">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>46028</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>46028</v>
       </c>
-      <c r="C25" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="C25" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="10">
         <v>22.4</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="10">
         <v>25.5</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="10">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="A26" s="8">
         <v>46035</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="8">
         <v>46035</v>
       </c>
-      <c r="C26" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="C26" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="10">
         <v>22.4</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="10">
         <v>25.5</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="10">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="A27" s="8">
         <v>46042</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <v>46042</v>
       </c>
-      <c r="C27" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="C27" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="10">
         <v>24.4</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="10">
         <v>27.5</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="10">
         <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="5">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="10">
+        <v>27.4</v>
+      </c>
+      <c r="F28" s="10">
+        <v>30.5</v>
+      </c>
+      <c r="G28" s="10">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3671,21 +3790,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF7D63-8706-4CE6-8EDE-86A6F3873A2B}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="11.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="12.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="10"/>
+    <col min="7" max="7" width="11.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -3701,612 +3820,635 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45860</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>45860</v>
       </c>
-      <c r="C2" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="C2" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10">
         <v>12.1</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="10">
         <v>15.9</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45867</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>45867</v>
       </c>
-      <c r="C3" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="C3" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10">
         <v>12.1</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="10">
         <v>15.9</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45874</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>45874</v>
       </c>
-      <c r="C4" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="C4" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10">
         <v>12.1</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="10">
         <v>15.9</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45881</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>45881</v>
       </c>
-      <c r="C5" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="C5" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10">
         <v>12.1</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="10">
         <v>15.9</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45888</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>45888</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="C6" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="10">
         <v>12.1</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="10">
         <v>15.9</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45895</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>45895</v>
       </c>
-      <c r="C7" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="C7" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="10">
         <v>12.1</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="10">
         <v>15.9</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>45902</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>45902</v>
       </c>
-      <c r="C8" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="C8" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10">
         <v>12.1</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="10">
         <v>15.9</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>45909</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>45909</v>
       </c>
-      <c r="C9" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="C9" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="10">
         <v>12.1</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="10">
         <v>15.9</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>45916</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>45916</v>
       </c>
-      <c r="C10" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="C10" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="10">
         <v>12.1</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="10">
         <v>15.9</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45923</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>45923</v>
       </c>
-      <c r="C11" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="C11" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10">
         <v>13.1</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="10">
         <v>16.899999999999999</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>45930</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>45930</v>
       </c>
-      <c r="C12" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="C12" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10">
         <v>13.1</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="10">
         <v>16.899999999999999</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>45944</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>45944</v>
       </c>
-      <c r="C13" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="C13" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="10">
         <v>14.7</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="10">
         <v>18.5</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="10">
         <v>16.600000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>45951</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>45951</v>
       </c>
-      <c r="C14" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="C14" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="10">
         <v>14.7</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="10">
         <v>18.5</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="10">
         <v>16.600000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>45958</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>45958</v>
       </c>
-      <c r="C15" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="C15" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="10">
         <v>17.600000000000001</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="10">
         <v>22</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="10">
         <v>19.5</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>45965</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>45965</v>
       </c>
-      <c r="C16" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="C16" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10">
         <v>22.1</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="10">
         <v>26.5</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="10">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>45972</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>45972</v>
       </c>
-      <c r="C17" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="C17" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="10">
         <v>23.1</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="10">
         <v>27.5</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="10">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>45979</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>45979</v>
       </c>
-      <c r="C18" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="C18" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="10">
         <v>26.6</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="10">
         <v>31</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="10">
         <v>28.5</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>45986</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>45986</v>
       </c>
-      <c r="C19" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="C19" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="10">
         <v>26.6</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="10">
         <v>31</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="10">
         <v>28.5</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>45993</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>45993</v>
       </c>
-      <c r="C20" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="C20" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="10">
         <v>34.1</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="10">
         <v>38.5</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="10">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>46000</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>46000</v>
       </c>
-      <c r="C21" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="C21" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="10">
         <v>34.1</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="10">
         <v>38.5</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="10">
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>46007</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>46007</v>
       </c>
-      <c r="C22" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="C22" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="10">
         <v>34.1</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="10">
         <v>38.5</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="10">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>46014</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>46014</v>
       </c>
-      <c r="C23" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="C23" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="10">
         <v>38.1</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="10">
         <v>42.5</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="10">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>46021</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>46021</v>
       </c>
-      <c r="C24" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="C24" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="10">
         <v>38.1</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="10">
         <v>42.5</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="10">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>46028</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>46028</v>
       </c>
-      <c r="C25" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="C25" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="10">
         <v>38.1</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="10">
         <v>42.5</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="10">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="A26" s="8">
         <v>46035</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="8">
         <v>46035</v>
       </c>
-      <c r="C26" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="C26" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="10">
         <v>38.1</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="10">
         <v>42.5</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="10">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="A27" s="8">
         <v>46042</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <v>46042</v>
       </c>
-      <c r="C27" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="C27" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="10">
         <v>42.1</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="10">
         <v>46.5</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="10">
         <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="5">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="10">
+        <v>48.1</v>
+      </c>
+      <c r="F28" s="10">
+        <v>52.5</v>
+      </c>
+      <c r="G28" s="10">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
